--- a/swat/List_of_attacks_marked.xlsx
+++ b/swat/List_of_attacks_marked.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\Roman_PHD\HTM\AD_SWAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\Roman_PHD\HTM\AD_SWAT\swat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC2D38D-4DE9-464C-A90A-876A853DC3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A725892-2AC7-4C68-B8C3-7A31B2AC241D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="159">
   <si>
     <t>MV-101</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>LIT401</t>
+  </si>
+  <si>
+    <t>MV301 stays 0N longer than usual</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -929,6 +932,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1214,9 +1218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,8 +1767,10 @@
       <c r="H18" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="84"/>
-      <c r="K18"/>
+      <c r="J18" s="83"/>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
@@ -2149,7 +2155,7 @@
         <v>18</v>
       </c>
       <c r="J30" s="80"/>
-      <c r="K30"/>
+      <c r="K30" s="87"/>
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
